--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2243166.827155616</v>
+        <v>2238542.419240064</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283197</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9597603.548047667</v>
+        <v>9597603.548047669</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33.93991247395533</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>33.93991247395533</v>
+        <v>18.92112911249623</v>
       </c>
       <c r="H2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>25.79717485420767</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>29.89427490705984</v>
+      </c>
+      <c r="D3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>29.89427490705984</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>12.44627538834367</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>12.44627538834367</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>38.48106384277808</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="G5" t="n">
         <v>38.48106384277808</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>33.89412103271894</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="W6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.96187038700693</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="F7" t="n">
-        <v>38.48106384277808</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>81.54548989577337</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>175.3318063516155</v>
+        <v>13.74888350366828</v>
       </c>
       <c r="H8" t="n">
-        <v>95.29437339944167</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="X8" t="n">
-        <v>175.3318063516155</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767895</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>48.53902377671845</v>
       </c>
       <c r="S9" t="n">
-        <v>154.4327105653319</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>105.8932312577844</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.91302503952067</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068414</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>27.79734426348796</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992552</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>111.932326632691</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>175.3318063516155</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>175.3318063516155</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>101.5730368512059</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>33.26272630933912</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826188607</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>51.89407438975464</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>23.6255456814127</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>114.720561100775</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.22544352992953</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>105.3219429113318</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000718</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>28.75188085811999</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189061</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>111.3213230702132</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986364</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>140.9357387834177</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>106.9977768135305</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="C2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D2" t="n">
-        <v>135.7596498958213</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E2" t="n">
-        <v>135.7596498958213</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="F2" t="n">
-        <v>101.4769100231392</v>
+        <v>25.96592952857138</v>
       </c>
       <c r="G2" t="n">
-        <v>67.19417015045701</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="H2" t="n">
-        <v>32.91143027777485</v>
+        <v>6.853677899787311</v>
       </c>
       <c r="I2" t="n">
         <v>6.853677899787311</v>
@@ -4333,19 +4333,19 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L2" t="n">
+        <v>34.95810984817397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>34.95810984817397</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.55862319738975</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.55862319738975</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>102.1591365466055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4354,28 +4354,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R2" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71.28067274328075</v>
+      </c>
+      <c r="D3" t="n">
         <v>36.99793287059858</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.715192997916426</v>
       </c>
       <c r="E3" t="n">
         <v>2.715192997916426</v>
@@ -4412,10 +4412,10 @@
         <v>6.606010638615182</v>
       </c>
       <c r="K3" t="n">
-        <v>6.606010638615182</v>
+        <v>40.20652398783096</v>
       </c>
       <c r="L3" t="n">
-        <v>40.20652398783096</v>
+        <v>68.55862319738975</v>
       </c>
       <c r="M3" t="n">
         <v>68.55862319738975</v>
@@ -4424,37 +4424,37 @@
         <v>68.55862319738975</v>
       </c>
       <c r="O3" t="n">
-        <v>68.55862319738975</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="P3" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T3" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="U3" t="n">
-        <v>105.5634126159629</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="V3" t="n">
-        <v>71.28067274328075</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="W3" t="n">
-        <v>71.28067274328075</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="X3" t="n">
-        <v>71.28067274328075</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.99793287059858</v>
+        <v>101.4769100231392</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.33943493601357</v>
+        <v>123.18765455406</v>
       </c>
       <c r="C4" t="n">
-        <v>20.33943493601357</v>
+        <v>123.18765455406</v>
       </c>
       <c r="D4" t="n">
-        <v>20.33943493601357</v>
+        <v>123.18765455406</v>
       </c>
       <c r="E4" t="n">
-        <v>20.33943493601357</v>
+        <v>123.18765455406</v>
       </c>
       <c r="F4" t="n">
-        <v>20.33943493601357</v>
+        <v>88.90491468137789</v>
       </c>
       <c r="G4" t="n">
-        <v>20.33943493601357</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="H4" t="n">
-        <v>20.33943493601357</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="I4" t="n">
-        <v>20.33943493601357</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="J4" t="n">
         <v>20.33943493601357</v>
@@ -4518,22 +4518,22 @@
         <v>135.7596498958213</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7596498958213</v>
+        <v>123.18765455406</v>
       </c>
       <c r="U4" t="n">
-        <v>135.7596498958213</v>
+        <v>123.18765455406</v>
       </c>
       <c r="V4" t="n">
-        <v>101.4769100231392</v>
+        <v>123.18765455406</v>
       </c>
       <c r="W4" t="n">
-        <v>67.19417015045701</v>
+        <v>123.18765455406</v>
       </c>
       <c r="X4" t="n">
-        <v>54.62217480869573</v>
+        <v>123.18765455406</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.33943493601357</v>
+        <v>123.18765455406</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>115.0544939137607</v>
+      </c>
+      <c r="C5" t="n">
+        <v>115.0544939137607</v>
+      </c>
+      <c r="D5" t="n">
+        <v>115.0544939137607</v>
+      </c>
+      <c r="E5" t="n">
+        <v>115.0544939137607</v>
+      </c>
+      <c r="F5" t="n">
         <v>80.81800802212544</v>
       </c>
-      <c r="C5" t="n">
-        <v>80.81800802212544</v>
-      </c>
-      <c r="D5" t="n">
-        <v>80.81800802212544</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80.81800802212544</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>41.94824656477385</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.078485107422247</v>
-      </c>
       <c r="H5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4576,22 +4576,22 @@
         <v>79.27099151612285</v>
       </c>
       <c r="M5" t="n">
-        <v>117.3672447204732</v>
+        <v>115.828002166762</v>
       </c>
       <c r="N5" t="n">
-        <v>148.7634570536217</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O5" t="n">
-        <v>148.7634570536217</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R5" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
         <v>115.0544939137607</v>
@@ -4603,16 +4603,16 @@
         <v>115.0544939137607</v>
       </c>
       <c r="V5" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W5" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X5" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.078485107422247</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C6" t="n">
-        <v>3.078485107422247</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D6" t="n">
-        <v>3.078485107422247</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="E6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="F6" t="n">
         <v>3.078485107422247</v>
@@ -4661,7 +4661,7 @@
         <v>77.73174896241173</v>
       </c>
       <c r="O6" t="n">
-        <v>77.73174896241173</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P6" t="n">
         <v>115.828002166762</v>
@@ -4682,16 +4682,16 @@
         <v>153.9242553711123</v>
       </c>
       <c r="V6" t="n">
-        <v>119.687769479477</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W6" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X6" t="n">
-        <v>41.94824656477385</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.078485107422247</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C7" t="n">
-        <v>95.90108948244061</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D7" t="n">
-        <v>95.90108948244061</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E7" t="n">
+        <v>76.18473245640914</v>
+      </c>
+      <c r="F7" t="n">
+        <v>76.18473245640914</v>
+      </c>
+      <c r="G7" t="n">
+        <v>76.18473245640914</v>
+      </c>
+      <c r="H7" t="n">
         <v>57.03132802508901</v>
       </c>
-      <c r="F7" t="n">
-        <v>18.16156656773741</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18.16156656773741</v>
-      </c>
-      <c r="H7" t="n">
-        <v>18.16156656773741</v>
-      </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4746,31 +4746,31 @@
         <v>153.9242553711123</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="R7" t="n">
-        <v>153.9242553711123</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>134.7708509397922</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4783,19 +4783,19 @@
         <v>294.331822783653</v>
       </c>
       <c r="C8" t="n">
-        <v>294.331822783653</v>
+        <v>117.2289880850516</v>
       </c>
       <c r="D8" t="n">
-        <v>294.331822783653</v>
+        <v>34.85980637214915</v>
       </c>
       <c r="E8" t="n">
-        <v>294.331822783653</v>
+        <v>34.85980637214915</v>
       </c>
       <c r="F8" t="n">
-        <v>287.3863220344496</v>
+        <v>27.91430562294568</v>
       </c>
       <c r="G8" t="n">
-        <v>110.2834873358481</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="H8" t="n">
         <v>14.02654450812924</v>
@@ -4807,22 +4807,22 @@
         <v>132.7593507837338</v>
       </c>
       <c r="K8" t="n">
-        <v>255.3827729096871</v>
+        <v>132.7593507837338</v>
       </c>
       <c r="L8" t="n">
-        <v>264.7317408347975</v>
+        <v>250.6886349220136</v>
       </c>
       <c r="M8" t="n">
-        <v>306.8037064488533</v>
+        <v>292.7606005360694</v>
       </c>
       <c r="N8" t="n">
-        <v>354.1702488302633</v>
+        <v>340.1271429174794</v>
       </c>
       <c r="O8" t="n">
-        <v>527.7487371183626</v>
+        <v>371.518764483787</v>
       </c>
       <c r="P8" t="n">
-        <v>701.3272254064618</v>
+        <v>545.0972527718862</v>
       </c>
       <c r="Q8" t="n">
         <v>701.3272254064618</v>
@@ -4843,7 +4843,7 @@
         <v>471.4346574822545</v>
       </c>
       <c r="W8" t="n">
-        <v>471.4346574822545</v>
+        <v>294.331822783653</v>
       </c>
       <c r="X8" t="n">
         <v>294.331822783653</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>545.3345884717831</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="C9" t="n">
-        <v>370.8815591906561</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="D9" t="n">
-        <v>221.9471495294048</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="E9" t="n">
-        <v>221.9471495294048</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="F9" t="n">
-        <v>75.4125915562898</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="G9" t="n">
-        <v>75.4125915562898</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="H9" t="n">
-        <v>75.4125915562898</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="I9" t="n">
         <v>14.02654450812924</v>
       </c>
       <c r="J9" t="n">
-        <v>91.04961084172307</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="K9" t="n">
-        <v>91.04961084172307</v>
+        <v>106.0949334332346</v>
       </c>
       <c r="L9" t="n">
-        <v>207.1402466437054</v>
+        <v>147.6372669611583</v>
       </c>
       <c r="M9" t="n">
-        <v>274.9750586177732</v>
+        <v>215.4720789352262</v>
       </c>
       <c r="N9" t="n">
-        <v>448.5535469058725</v>
+        <v>299.5109214492123</v>
       </c>
       <c r="O9" t="n">
-        <v>503.2128742869235</v>
+        <v>354.1702488302633</v>
       </c>
       <c r="P9" t="n">
         <v>527.7487371183626</v>
@@ -4907,28 +4907,28 @@
         <v>701.3272254064618</v>
       </c>
       <c r="R9" t="n">
-        <v>701.3272254064618</v>
+        <v>652.2979084602815</v>
       </c>
       <c r="S9" t="n">
-        <v>545.3345884717831</v>
+        <v>652.2979084602815</v>
       </c>
       <c r="T9" t="n">
-        <v>545.3345884717831</v>
+        <v>475.1950737616801</v>
       </c>
       <c r="U9" t="n">
-        <v>545.3345884717831</v>
+        <v>298.0922390630786</v>
       </c>
       <c r="V9" t="n">
-        <v>545.3345884717831</v>
+        <v>120.9894043644772</v>
       </c>
       <c r="W9" t="n">
-        <v>545.3345884717831</v>
+        <v>120.9894043644772</v>
       </c>
       <c r="X9" t="n">
-        <v>545.3345884717831</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="Y9" t="n">
-        <v>545.3345884717831</v>
+        <v>14.02654450812924</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.55270328659807</v>
+        <v>627.8824079286753</v>
       </c>
       <c r="C10" t="n">
-        <v>58.55270328659807</v>
+        <v>458.9462250007684</v>
       </c>
       <c r="D10" t="n">
-        <v>58.55270328659807</v>
+        <v>308.8295855884327</v>
       </c>
       <c r="E10" t="n">
-        <v>58.55270328659807</v>
+        <v>160.9164920060396</v>
       </c>
       <c r="F10" t="n">
-        <v>58.55270328659807</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="G10" t="n">
-        <v>58.55270328659807</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="H10" t="n">
-        <v>58.55270328659807</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="I10" t="n">
-        <v>58.55270328659807</v>
+        <v>14.02654450812924</v>
       </c>
       <c r="J10" t="n">
         <v>14.02654450812924</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288445</v>
+        <v>72.14931057288447</v>
       </c>
       <c r="L10" t="n">
         <v>202.052874770761</v>
@@ -4986,28 +4986,28 @@
         <v>673.2490998877871</v>
       </c>
       <c r="R10" t="n">
-        <v>525.8213288784384</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="S10" t="n">
-        <v>525.8213288784384</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="T10" t="n">
-        <v>412.758372683801</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="U10" t="n">
-        <v>235.6555379851995</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="V10" t="n">
-        <v>58.55270328659807</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="W10" t="n">
-        <v>58.55270328659807</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="X10" t="n">
-        <v>58.55270328659807</v>
+        <v>673.2490998877871</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.55270328659807</v>
+        <v>673.2490998877871</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>779.6143379232838</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5360,16 +5360,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>278.5023935224885</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2413.364370136484</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2230.509535791388</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2230.509535791388</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1941.434309135586</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.749820929699</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1397.332650892738</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.343099994721</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.5505208511906</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474216</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5682,43 +5682,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.10824923516</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258101</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602299</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396412</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359451</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614341</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317904</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5846,10 +5846,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6077,16 +6077,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6226,13 +6226,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6314,16 +6314,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
         <v>538.7363435406111</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>803.2707707770319</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>653.1541313646961</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>505.241037782303</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>4435.461999481584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>449.4852666057155</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4852666057155</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>282.2891673205955</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7198,28 +7198,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7238,22 +7238,22 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400712</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,43 +7636,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7681,7 +7681,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.580456911449</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2304.603751475798</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820196</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783236</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.021500885218</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.228921741688</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>242.2613672256909</v>
+        <v>240.8900576307836</v>
       </c>
       <c r="L2" t="n">
-        <v>253.7352816144805</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
@@ -7996,7 +7996,7 @@
         <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>251.8689757786171</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>161.7463912169474</v>
+        <v>156.4449627930514</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2302244077775</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>164.7587326673596</v>
       </c>
       <c r="P3" t="n">
         <v>158.4618986107626</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.6029932607663</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,19 +8224,19 @@
         <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>244.1059827132785</v>
+        <v>242.5511922549844</v>
       </c>
       <c r="N5" t="n">
-        <v>236.0050783192468</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8309,10 +8309,10 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>163.1546825303321</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0709840006057</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
         <v>168.8471891366353</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>146.2958363853317</v>
+        <v>22.43379383386369</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>109.6770870840095</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>143.6230976987795</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>183.1186529404483</v>
       </c>
       <c r="Q8" t="n">
-        <v>54.50693749366673</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>48.28995823576861</v>
       </c>
       <c r="K9" t="n">
-        <v>3.590962737398087</v>
+        <v>96.58933538901962</v>
       </c>
       <c r="L9" t="n">
-        <v>75.30131542834192</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>90.44408664051835</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>150.548106521879</v>
       </c>
       <c r="Q9" t="n">
         <v>209.1879900744757</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-4.55656601795466e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>-1.034239772664103e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.72167599501797</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>33.11252040078257</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610452</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>165.5113759375336</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>122.8084169651565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>125.1956044930017</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891724</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>116.6691671648113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>34.09972495271806</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>40.09054721822693</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>145.1398665102975</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814465.9272701539</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814465.9272701542</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982132</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675045</v>
@@ -26337,25 +26337,25 @@
         <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.1744593356</v>
+        <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
         <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230411</v>
+        <v>34635.69127230416</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575369</v>
+        <v>248550.2087575367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.31242673187</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731933</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731933</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26450,16 +26450,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732006</v>
+        <v>8117.312426731971</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731933</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731871</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145777.6156593625</v>
+        <v>145777.615659363</v>
       </c>
       <c r="C6" t="n">
-        <v>169591.7461184731</v>
+        <v>169591.7461184736</v>
       </c>
       <c r="D6" t="n">
         <v>-86137.77664024953</v>
       </c>
       <c r="E6" t="n">
-        <v>-590177.9086758581</v>
+        <v>-590525.2879302152</v>
       </c>
       <c r="F6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625083</v>
       </c>
       <c r="G6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625085</v>
       </c>
       <c r="H6" t="n">
-        <v>496120.1075168655</v>
+        <v>495772.7282625085</v>
       </c>
       <c r="I6" t="n">
-        <v>496120.1075168655</v>
+        <v>495772.7282625085</v>
       </c>
       <c r="J6" t="n">
-        <v>487239.9330575297</v>
+        <v>486892.5538031727</v>
       </c>
       <c r="K6" t="n">
-        <v>494951.3604713743</v>
+        <v>494603.9812170168</v>
       </c>
       <c r="L6" t="n">
-        <v>461484.4162445611</v>
+        <v>461137.036990204</v>
       </c>
       <c r="M6" t="n">
-        <v>247569.8987593282</v>
+        <v>247222.5195049718</v>
       </c>
       <c r="N6" t="n">
-        <v>496120.1075168652</v>
+        <v>495772.7282625084</v>
       </c>
       <c r="O6" t="n">
-        <v>496120.1075168656</v>
+        <v>495772.7282625083</v>
       </c>
       <c r="P6" t="n">
-        <v>496120.1075168655</v>
+        <v>495772.7282625084</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>136.8507425088374</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480329</v>
+        <v>997.3764817480325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>320.7431291467276</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.9361332677561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>381.270308929876</v>
+        <v>396.2890922913351</v>
       </c>
       <c r="H2" t="n">
-        <v>304.5874090169231</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>181.1119873351633</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>138.7685865143604</v>
+        <v>142.8142240812559</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>123.7051679814456</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>63.14454955308224</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27514,10 +27514,10 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>196.0438505631574</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>198.8606746754699</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.742783303349</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4811355489759</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>134.0095673419535</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27560,7 +27560,7 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>56.48524998443612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>215.3219978126789</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>218.1977308498727</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>252.5830858626357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>213.2633800006935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.6447408781395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>368.3949818989333</v>
+        <v>372.9819247089925</v>
       </c>
       <c r="G5" t="n">
         <v>376.6808846845414</v>
@@ -27636,7 +27636,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>166.5670582748677</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>167.3307766836197</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27675,7 +27675,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>293.858137437416</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,13 +27700,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5509445319198</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.1640166126229</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.5881485506058</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27754,16 +27754,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>198.9064661167063</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W6" t="n">
-        <v>213.2139193181415</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>167.2919213606994</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.2016319345263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>128.7657572558497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>110.1344091754343</v>
       </c>
       <c r="E7" t="n">
-        <v>107.9528988037911</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>106.9399841801532</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>142.7038137108703</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>50.4131925917203</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>42.39276904032837</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>203.9541414729397</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>189.9410854193921</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>273.1375517249096</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>238.4170771520528</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>228.2670213213914</v>
+        <v>323.5613947208331</v>
       </c>
       <c r="I8" t="n">
         <v>150.570932793333</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>173.9091623657976</v>
       </c>
       <c r="X8" t="n">
-        <v>194.3992943268536</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,16 +27934,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.5121319720754</v>
@@ -27952,7 +27952,7 @@
         <v>104.2060135747427</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>60.77218657767895</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671845</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.807845255796082</v>
+        <v>156.240555821128</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8136629463422</v>
+        <v>21.48185659472674</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8866856868212</v>
+        <v>50.55487933520573</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>57.46878079780981</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>99.87975394569303</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>134.9189551424166</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2939739422496</v>
@@ -28034,7 +28034,7 @@
         <v>134.489621137986</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.08089719068414</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>145.9534932992552</v>
       </c>
       <c r="S10" t="n">
         <v>211.8696945563087</v>
       </c>
       <c r="T10" t="n">
-        <v>113.0351487445149</v>
+        <v>224.9674753772059</v>
       </c>
       <c r="U10" t="n">
-        <v>110.9492045276277</v>
+        <v>286.2810108792431</v>
       </c>
       <c r="V10" t="n">
-        <v>76.80583697221255</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-4.69252986170444e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30857,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.487508428269219e-12</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32317,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565753</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,37 +34210,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551115</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,25 +34447,25 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="L2" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>33.93991247395533</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
+        <v>28.63848405005938</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="M3" t="n">
-        <v>28.63848405005938</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
+        <v>36.92627338448403</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="N5" t="n">
-        <v>31.71334579105919</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>38.48106384277808</v>
@@ -35175,10 +35175,10 @@
         <v>119.9321275511157</v>
       </c>
       <c r="K8" t="n">
-        <v>123.862042551468</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>9.443401944555973</v>
+        <v>119.1204890285654</v>
       </c>
       <c r="M8" t="n">
         <v>42.49693496369272</v>
@@ -35187,13 +35187,13 @@
         <v>47.84499230445454</v>
       </c>
       <c r="O8" t="n">
-        <v>175.3318063516155</v>
+        <v>31.70870865283595</v>
       </c>
       <c r="P8" t="n">
         <v>175.3318063516155</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>157.808053166238</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>77.80107710464023</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>92.99837265162154</v>
       </c>
       <c r="L9" t="n">
-        <v>117.2632684868508</v>
+        <v>41.96195305850887</v>
       </c>
       <c r="M9" t="n">
         <v>68.52001209501807</v>
       </c>
       <c r="N9" t="n">
-        <v>175.3318063516155</v>
+        <v>84.88771971109708</v>
       </c>
       <c r="O9" t="n">
         <v>55.21144179904138</v>
       </c>
       <c r="P9" t="n">
-        <v>24.78369982973646</v>
+        <v>175.3318063516155</v>
       </c>
       <c r="Q9" t="n">
         <v>175.3318063516155</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010406</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121309</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075163</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306618</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37794,13 +37794,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075249</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2238542.419240064</v>
+        <v>2240302.949542848</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283197</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9597603.548047669</v>
+        <v>9597603.548047667</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,16 +673,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>18.92112911249623</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
+        <v>7.808007761517025</v>
+      </c>
+      <c r="T2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29.89427490705984</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="D3" t="n">
+        <v>29.89427490705985</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="E3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -840,43 +840,43 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>29.89427490705984</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17.44799951871617</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>12.44627538834367</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>11.85612676368803</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>33.89412103271894</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>38.48106384277808</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="D6" t="n">
-        <v>33.89412103271894</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="F6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1059,28 +1059,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="F7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="H7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>175.3318063516155</v>
+        <v>81.54548989577198</v>
       </c>
       <c r="D8" t="n">
-        <v>81.54548989577337</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.74888350366828</v>
+        <v>13.74888350366829</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.26183589334983</v>
+        <v>52.26183589335042</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>175.3318063516155</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="W8" t="n">
-        <v>175.3318063516155</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>105.8932312577834</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>48.53902377671845</v>
+        <v>48.53902377671876</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>175.3318063516155</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>175.3318063516155</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>175.3318063516155</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="X9" t="n">
-        <v>105.8932312577844</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.3318063516145</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.91302503952067</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2939739422496</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.79734426348796</v>
+        <v>27.79734426348831</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>161.3890765137809</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>101.5730368512059</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>144.6100405317611</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>51.89407438975464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>30.97191586387601</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.720561100775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3082,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784685</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922626</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000718</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>146.5235739004547</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>19.91555826189061</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>112.730417524682</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>140.9357387834177</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="C2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="D2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="E2" t="n">
-        <v>32.91143027777485</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="F2" t="n">
-        <v>25.96592952857138</v>
+        <v>52.36179287446866</v>
       </c>
       <c r="G2" t="n">
-        <v>6.853677899787311</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="H2" t="n">
-        <v>6.853677899787311</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="I2" t="n">
-        <v>6.853677899787311</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J2" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>34.95810984817397</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>34.95810984817397</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="M2" t="n">
-        <v>34.95810984817397</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="N2" t="n">
-        <v>68.55862319738975</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="O2" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4357,25 +4357,25 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>67.19417015045701</v>
+        <v>93.59003349635429</v>
       </c>
       <c r="T2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="U2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="V2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="W2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="X2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367214</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.19417015045701</v>
+        <v>59.30729362367214</v>
       </c>
     </row>
     <row r="3">
@@ -4388,16 +4388,16 @@
         <v>101.4769100231392</v>
       </c>
       <c r="C3" t="n">
-        <v>71.28067274328075</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D3" t="n">
         <v>36.99793287059858</v>
       </c>
       <c r="E3" t="n">
-        <v>2.715192997916426</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="F3" t="n">
-        <v>2.715192997916426</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="G3" t="n">
         <v>2.715192997916426</v>
@@ -4409,25 +4409,25 @@
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>40.20652398783096</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L3" t="n">
-        <v>68.55862319738975</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M3" t="n">
-        <v>68.55862319738975</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="N3" t="n">
-        <v>68.55862319738975</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="O3" t="n">
+        <v>69.91621969634798</v>
+      </c>
+      <c r="P3" t="n">
         <v>102.1591365466055</v>
-      </c>
-      <c r="P3" t="n">
-        <v>135.7596498958213</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="C4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="D4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="E4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="F4" t="n">
-        <v>88.90491468137789</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="G4" t="n">
-        <v>54.62217480869573</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H4" t="n">
-        <v>54.62217480869573</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I4" t="n">
-        <v>54.62217480869573</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="J4" t="n">
-        <v>20.33943493601357</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K4" t="n">
         <v>2.715192997916426</v>
@@ -4509,31 +4509,31 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7596498958213</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="T4" t="n">
-        <v>123.18765455406</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="U4" t="n">
-        <v>123.18765455406</v>
+        <v>105.5634126159629</v>
       </c>
       <c r="V4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="W4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="X4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.18765455406</v>
+        <v>71.28067274328075</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C5" t="n">
-        <v>115.0544939137607</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="D5" t="n">
-        <v>115.0544939137607</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="E5" t="n">
-        <v>115.0544939137607</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="F5" t="n">
-        <v>80.81800802212544</v>
+        <v>57.26334608731877</v>
       </c>
       <c r="G5" t="n">
         <v>41.94824656477385</v>
@@ -4570,22 +4570,22 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
+        <v>3.078485107422247</v>
+      </c>
+      <c r="L5" t="n">
         <v>41.17473831177255</v>
       </c>
-      <c r="L5" t="n">
-        <v>79.27099151612285</v>
-      </c>
       <c r="M5" t="n">
-        <v>115.828002166762</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="N5" t="n">
-        <v>115.828002166762</v>
+        <v>72.57095064492114</v>
       </c>
       <c r="O5" t="n">
-        <v>115.828002166762</v>
+        <v>110.6672038492714</v>
       </c>
       <c r="P5" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4606,13 +4606,13 @@
         <v>115.0544939137607</v>
       </c>
       <c r="W5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="X5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="C6" t="n">
         <v>115.0544939137607</v>
       </c>
       <c r="D6" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E6" t="n">
-        <v>41.94824656477385</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="F6" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="G6" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="H6" t="n">
         <v>3.078485107422247</v>
@@ -4652,19 +4652,19 @@
         <v>47.48135862876946</v>
       </c>
       <c r="L6" t="n">
-        <v>77.73174896241173</v>
+        <v>47.48135862876946</v>
       </c>
       <c r="M6" t="n">
-        <v>77.73174896241173</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="N6" t="n">
-        <v>77.73174896241173</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="O6" t="n">
         <v>115.828002166762</v>
       </c>
       <c r="P6" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
@@ -4682,16 +4682,16 @@
         <v>153.9242553711123</v>
       </c>
       <c r="V6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="W6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="X6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.0544939137607</v>
+        <v>153.9242553711123</v>
       </c>
     </row>
     <row r="7">
@@ -4707,25 +4707,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="D7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E7" t="n">
-        <v>76.18473245640914</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="F7" t="n">
-        <v>76.18473245640914</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G7" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="H7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="I7" t="n">
-        <v>57.03132802508901</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="J7" t="n">
-        <v>18.16156656773741</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K7" t="n">
         <v>3.078485107422247</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294.331822783653</v>
+        <v>294.3318227836506</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2289880850516</v>
+        <v>211.9626410707496</v>
       </c>
       <c r="D8" t="n">
-        <v>34.85980637214915</v>
+        <v>34.85980637214908</v>
       </c>
       <c r="E8" t="n">
-        <v>34.85980637214915</v>
+        <v>34.85980637214908</v>
       </c>
       <c r="F8" t="n">
-        <v>27.91430562294568</v>
+        <v>27.91430562294561</v>
       </c>
       <c r="G8" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="H8" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="I8" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="J8" t="n">
-        <v>132.7593507837338</v>
+        <v>132.7593507837329</v>
       </c>
       <c r="K8" t="n">
-        <v>132.7593507837338</v>
+        <v>132.7593507837329</v>
       </c>
       <c r="L8" t="n">
-        <v>250.6886349220136</v>
+        <v>306.3378390718314</v>
       </c>
       <c r="M8" t="n">
-        <v>292.7606005360694</v>
+        <v>348.4098046858855</v>
       </c>
       <c r="N8" t="n">
-        <v>340.1271429174794</v>
+        <v>395.7763470672938</v>
       </c>
       <c r="O8" t="n">
-        <v>371.518764483787</v>
+        <v>427.1679686335999</v>
       </c>
       <c r="P8" t="n">
-        <v>545.0972527718862</v>
+        <v>600.7464569216983</v>
       </c>
       <c r="Q8" t="n">
-        <v>701.3272254064618</v>
+        <v>701.3272254064582</v>
       </c>
       <c r="R8" t="n">
-        <v>648.5374921808559</v>
+        <v>648.5374921808517</v>
       </c>
       <c r="S8" t="n">
-        <v>648.5374921808559</v>
+        <v>648.5374921808517</v>
       </c>
       <c r="T8" t="n">
-        <v>648.5374921808559</v>
+        <v>648.5374921808517</v>
       </c>
       <c r="U8" t="n">
-        <v>471.4346574822545</v>
+        <v>648.5374921808517</v>
       </c>
       <c r="V8" t="n">
-        <v>471.4346574822545</v>
+        <v>471.4346574822512</v>
       </c>
       <c r="W8" t="n">
-        <v>294.331822783653</v>
+        <v>294.3318227836506</v>
       </c>
       <c r="X8" t="n">
-        <v>294.331822783653</v>
+        <v>294.3318227836506</v>
       </c>
       <c r="Y8" t="n">
-        <v>294.331822783653</v>
+        <v>294.3318227836506</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="C9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="D9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="E9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="F9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="G9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="H9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="I9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="J9" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="K9" t="n">
-        <v>106.0949334332346</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="L9" t="n">
-        <v>147.6372669611583</v>
+        <v>55.56887803605187</v>
       </c>
       <c r="M9" t="n">
-        <v>215.4720789352262</v>
+        <v>180.5917605421629</v>
       </c>
       <c r="N9" t="n">
-        <v>299.5109214492123</v>
+        <v>354.1702488302613</v>
       </c>
       <c r="O9" t="n">
-        <v>354.1702488302633</v>
+        <v>527.7487371183597</v>
       </c>
       <c r="P9" t="n">
-        <v>527.7487371183626</v>
+        <v>701.3272254064582</v>
       </c>
       <c r="Q9" t="n">
-        <v>701.3272254064618</v>
+        <v>701.3272254064582</v>
       </c>
       <c r="R9" t="n">
-        <v>652.2979084602815</v>
+        <v>652.2979084602777</v>
       </c>
       <c r="S9" t="n">
-        <v>652.2979084602815</v>
+        <v>652.2979084602777</v>
       </c>
       <c r="T9" t="n">
-        <v>475.1950737616801</v>
+        <v>652.2979084602777</v>
       </c>
       <c r="U9" t="n">
-        <v>298.0922390630786</v>
+        <v>652.2979084602777</v>
       </c>
       <c r="V9" t="n">
-        <v>120.9894043644772</v>
+        <v>475.1950737616771</v>
       </c>
       <c r="W9" t="n">
-        <v>120.9894043644772</v>
+        <v>298.0922390630766</v>
       </c>
       <c r="X9" t="n">
-        <v>14.02654450812924</v>
+        <v>298.0922390630766</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.02654450812924</v>
+        <v>120.989404364476</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8824079286753</v>
+        <v>333.1269959833432</v>
       </c>
       <c r="C10" t="n">
-        <v>458.9462250007684</v>
+        <v>333.1269959833432</v>
       </c>
       <c r="D10" t="n">
-        <v>308.8295855884327</v>
+        <v>183.0103565710075</v>
       </c>
       <c r="E10" t="n">
-        <v>160.9164920060396</v>
+        <v>183.0103565710075</v>
       </c>
       <c r="F10" t="n">
-        <v>14.02654450812924</v>
+        <v>183.0103565710075</v>
       </c>
       <c r="G10" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="H10" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="I10" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="J10" t="n">
-        <v>14.02654450812924</v>
+        <v>14.02654450812916</v>
       </c>
       <c r="K10" t="n">
-        <v>72.14931057288447</v>
+        <v>72.14931057288388</v>
       </c>
       <c r="L10" t="n">
-        <v>202.052874770761</v>
+        <v>202.0528747707598</v>
       </c>
       <c r="M10" t="n">
-        <v>349.4070924882363</v>
+        <v>349.4070924882345</v>
       </c>
       <c r="N10" t="n">
-        <v>498.692172683114</v>
+        <v>498.6921726831115</v>
       </c>
       <c r="O10" t="n">
-        <v>620.5648112189956</v>
+        <v>620.5648112189924</v>
       </c>
       <c r="P10" t="n">
-        <v>701.3272254064618</v>
+        <v>701.3272254064582</v>
       </c>
       <c r="Q10" t="n">
-        <v>673.2490998877871</v>
+        <v>673.2490998877831</v>
       </c>
       <c r="R10" t="n">
-        <v>673.2490998877871</v>
+        <v>673.2490998877831</v>
       </c>
       <c r="S10" t="n">
-        <v>673.2490998877871</v>
+        <v>673.2490998877831</v>
       </c>
       <c r="T10" t="n">
-        <v>673.2490998877871</v>
+        <v>673.2490998877831</v>
       </c>
       <c r="U10" t="n">
-        <v>673.2490998877871</v>
+        <v>510.2298306819438</v>
       </c>
       <c r="V10" t="n">
-        <v>673.2490998877871</v>
+        <v>333.1269959833432</v>
       </c>
       <c r="W10" t="n">
-        <v>673.2490998877871</v>
+        <v>333.1269959833432</v>
       </c>
       <c r="X10" t="n">
-        <v>673.2490998877871</v>
+        <v>333.1269959833432</v>
       </c>
       <c r="Y10" t="n">
-        <v>673.2490998877871</v>
+        <v>333.1269959833432</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>135.3992198226851</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>135.3992198226851</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900017</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>593.6115863900017</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>445.6984928076085</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>445.6984928076085</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>278.5023935224885</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2233.846631820783</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2014.245166843724</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2211.689992275817</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1922.614765620015</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.930277414128</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1378.513107377167</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1150.52355647915</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356195</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5740,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,22 +5767,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,22 +6004,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6077,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290469</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>96.85392869224876</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6557,13 +6557,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7004,37 +7004,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536317</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257248</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133891</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098309959</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330856</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580254</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580254</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580254</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625419</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727401</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583871</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7198,28 +7198,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,19 +7241,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
@@ -7268,13 +7268,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9333885650331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,37 +7405,37 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603206</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947404</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741517</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704556</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7642,37 +7642,37 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2304.603751475798</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2085.00228649874</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1795.927059842937</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1541.24257163705</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1251.82540160009</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>240.8900576307836</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N2" t="n">
-        <v>246.8450950403531</v>
+        <v>245.4737854454458</v>
       </c>
       <c r="O2" t="n">
         <v>248.4501999472249</v>
       </c>
       <c r="P2" t="n">
-        <v>251.8689757786171</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>156.4449627930514</v>
+        <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
         <v>129.5917403577182</v>
@@ -8072,13 +8072,13 @@
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>164.7587326673596</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>158.4618986107626</v>
+        <v>157.0905890158553</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>167.6029932607663</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>240.6620276789126</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
         <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
-        <v>242.5511922549844</v>
+        <v>237.3382646615596</v>
       </c>
       <c r="N5" t="n">
         <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P5" t="n">
         <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8300,22 +8300,22 @@
         <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>152.7544096882483</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>163.1546825303321</v>
+        <v>155.2295685195159</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>158.0709840006057</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43379383386369</v>
+        <v>22.43379383386488</v>
       </c>
       <c r="L8" t="n">
-        <v>109.6770870840095</v>
+        <v>165.8884044070601</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8470,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>183.1186529404483</v>
+        <v>183.1186529404488</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>156.1036733368596</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>48.28995823576861</v>
+        <v>48.28995823576908</v>
       </c>
       <c r="K9" t="n">
-        <v>96.58933538901962</v>
+        <v>3.590962737398911</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>57.76572781014582</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>90.44408664051872</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>120.1203645525744</v>
       </c>
       <c r="P9" t="n">
         <v>150.548106521879</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1879900744757</v>
+        <v>33.85618372286085</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-4.55656601795466e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.034239772664103e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>40.09910511159944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.72167599501797</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>36.41624546988348</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>165.5113759375336</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891724</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>139.9994244361363</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>112.9792378643552</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>40.09054721822693</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>853692.7388741456</v>
+        <v>853692.7388741458</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814465.9272701539</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675044</v>
@@ -26371,10 +26371,10 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>343539.4026003675</v>
+        <v>343539.4026003652</v>
       </c>
       <c r="E3" t="n">
-        <v>1086298.016192724</v>
+        <v>1086298.016192726</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335547</v>
+        <v>8880.174459335607</v>
       </c>
       <c r="K3" t="n">
         <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>34635.69127230416</v>
+        <v>34635.69127230391</v>
       </c>
       <c r="M3" t="n">
-        <v>248550.2087575367</v>
+        <v>248550.2087575371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>305665.7657712352</v>
+        <v>305665.7657712358</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26447,19 +26447,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426732078</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731971</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732078</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>52713.93566685967</v>
+        <v>52713.93566685957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>145777.615659363</v>
       </c>
       <c r="C6" t="n">
-        <v>169591.7461184736</v>
+        <v>169591.7461184731</v>
       </c>
       <c r="D6" t="n">
-        <v>-86137.77664024953</v>
+        <v>-86137.77664024809</v>
       </c>
       <c r="E6" t="n">
-        <v>-590525.2879302152</v>
+        <v>-590212.646601296</v>
       </c>
       <c r="F6" t="n">
-        <v>495772.7282625083</v>
+        <v>496085.3695914297</v>
       </c>
       <c r="G6" t="n">
-        <v>495772.7282625085</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="H6" t="n">
-        <v>495772.7282625085</v>
+        <v>496085.3695914294</v>
       </c>
       <c r="I6" t="n">
-        <v>495772.7282625085</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="J6" t="n">
-        <v>486892.5538031727</v>
+        <v>487205.1951320939</v>
       </c>
       <c r="K6" t="n">
-        <v>494603.9812170168</v>
+        <v>494916.6225459384</v>
       </c>
       <c r="L6" t="n">
-        <v>461137.036990204</v>
+        <v>461449.6783191255</v>
       </c>
       <c r="M6" t="n">
-        <v>247222.5195049718</v>
+        <v>247535.1608338926</v>
       </c>
       <c r="N6" t="n">
-        <v>495772.7282625084</v>
+        <v>496085.3695914292</v>
       </c>
       <c r="O6" t="n">
-        <v>495772.7282625083</v>
+        <v>496085.3695914297</v>
       </c>
       <c r="P6" t="n">
-        <v>495772.7282625084</v>
+        <v>496085.3695914295</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>386.5211853523604</v>
+        <v>386.5211853523581</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>175.3318063516155</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.27836717816564e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>351.4999246332351</v>
+        <v>351.4999246332328</v>
       </c>
       <c r="E3" t="n">
-        <v>981.4543149893134</v>
+        <v>981.4543149893157</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>136.8507425088374</v>
+        <v>136.8507425088365</v>
       </c>
       <c r="E4" t="n">
-        <v>997.3764817480329</v>
+        <v>997.3764817480338</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395525</v>
+        <v>33.93991247395547</v>
       </c>
       <c r="K4" t="n">
         <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088374</v>
+        <v>136.8507425088362</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480325</v>
+        <v>997.3764817480341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>136.8507425088374</v>
+        <v>136.8507425088365</v>
       </c>
       <c r="M4" t="n">
-        <v>997.3764817480329</v>
+        <v>997.3764817480338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>320.7431291467276</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,16 +27393,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.2890922913351</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>172.9692497154156</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>172.9719462259575</v>
+        <v>199.1038509383958</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>188.7509478129442</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>142.8142240812559</v>
+        <v>138.7685865143604</v>
       </c>
       <c r="D3" t="n">
-        <v>113.5051530906834</v>
+        <v>117.5507906575789</v>
       </c>
       <c r="E3" t="n">
-        <v>123.7051679814456</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>103.3541042057403</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
@@ -27560,10 +27560,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>56.48524998443612</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>52.79274755892936</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27590,13 +27590,13 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>215.3219978126789</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.1977308498727</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>353.4167650073195</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.9819247089925</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>310.7599048746349</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>134.2274351455376</v>
       </c>
       <c r="D6" t="n">
-        <v>113.5509445319198</v>
+        <v>108.9640017218607</v>
       </c>
       <c r="E6" t="n">
         <v>119.1640166126229</v>
       </c>
       <c r="F6" t="n">
-        <v>106.5881485506058</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>77.6138060707255</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27754,7 +27754,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>194.3195233066472</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27779,28 +27779,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>110.1344091754343</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>112.5398416138502</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>106.9399841801532</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>129.4467624225806</v>
       </c>
       <c r="H7" t="n">
-        <v>142.7038137108703</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4131925917203</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>189.9410854193921</v>
+        <v>283.7274018752356</v>
       </c>
       <c r="D8" t="n">
-        <v>273.1375517249096</v>
+        <v>179.3512352690684</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.5613947208331</v>
+        <v>323.5613947208332</v>
       </c>
       <c r="I8" t="n">
-        <v>150.570932793333</v>
+        <v>150.5709327933334</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>173.6116212999462</v>
+        <v>173.6116212999464</v>
       </c>
       <c r="T8" t="n">
         <v>216.2938536289356</v>
       </c>
       <c r="U8" t="n">
-        <v>75.8895382353037</v>
+        <v>251.2213445869191</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>152.4204521185204</v>
       </c>
       <c r="W8" t="n">
-        <v>173.9091623657976</v>
+        <v>173.9091623657985</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>60.63995239208394</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27949,10 +27949,10 @@
         <v>136.5121319720754</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2060135747427</v>
+        <v>104.2060135747428</v>
       </c>
       <c r="I9" t="n">
-        <v>60.77218657767895</v>
+        <v>60.77218657767912</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.240555821128</v>
+        <v>156.2405558211281</v>
       </c>
       <c r="T9" t="n">
-        <v>21.48185659472674</v>
+        <v>196.8136629463422</v>
       </c>
       <c r="U9" t="n">
-        <v>50.55487933520573</v>
+        <v>225.8866856868212</v>
       </c>
       <c r="V9" t="n">
-        <v>57.46878079780981</v>
+        <v>57.46878079781072</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>76.36317680930506</v>
       </c>
       <c r="X9" t="n">
-        <v>99.87975394569303</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>30.35088942568981</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.9189551424166</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2939739422496</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.0301607160525</v>
+        <v>156.0301607160526</v>
       </c>
       <c r="I10" t="n">
-        <v>134.489621137986</v>
+        <v>134.4896211379861</v>
       </c>
       <c r="J10" t="n">
-        <v>44.08089719068414</v>
+        <v>44.08089719068444</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>145.9534932992552</v>
+        <v>145.9534932992553</v>
       </c>
       <c r="S10" t="n">
-        <v>211.8696945563087</v>
+        <v>211.8696945563088</v>
       </c>
       <c r="T10" t="n">
         <v>224.9674753772059</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2810108792431</v>
+        <v>124.8919343654622</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>76.80583697221346</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29985,19 +29985,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30048,13 +30048,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30158,7 +30158,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.295002614414052e-12</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-4.69252986170444e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>6.751381063403296e-13</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30653,7 +30653,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4.571293608196788e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.553854011466774</v>
+        <v>1.553854011466765</v>
       </c>
       <c r="H8" t="n">
-        <v>15.91340739493411</v>
+        <v>15.91340739493401</v>
       </c>
       <c r="I8" t="n">
-        <v>59.90495677707288</v>
+        <v>59.90495677707251</v>
       </c>
       <c r="J8" t="n">
-        <v>131.8814169057283</v>
+        <v>131.8814169057275</v>
       </c>
       <c r="K8" t="n">
-        <v>197.6560572111169</v>
+        <v>197.6560572111157</v>
       </c>
       <c r="L8" t="n">
-        <v>245.2098169145432</v>
+        <v>245.2098169145417</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8431681909655</v>
+        <v>272.8431681909638</v>
       </c>
       <c r="N8" t="n">
-        <v>277.2580559010455</v>
+        <v>277.2580559010437</v>
       </c>
       <c r="O8" t="n">
-        <v>261.8069200745227</v>
+        <v>261.8069200745211</v>
       </c>
       <c r="P8" t="n">
-        <v>223.4461491664367</v>
+        <v>223.4461491664353</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.7987523807828</v>
+        <v>167.7987523807817</v>
       </c>
       <c r="R8" t="n">
-        <v>97.60728204779986</v>
+        <v>97.60728204779926</v>
       </c>
       <c r="S8" t="n">
-        <v>35.40844828629915</v>
+        <v>35.40844828629894</v>
       </c>
       <c r="T8" t="n">
-        <v>6.801995935195809</v>
+        <v>6.801995935195768</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1243083209173419</v>
+        <v>0.1243083209173412</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8313851911352659</v>
+        <v>0.8313851911352608</v>
       </c>
       <c r="H9" t="n">
-        <v>8.029430661753754</v>
+        <v>8.029430661753704</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62444627373613</v>
+        <v>28.62444627373596</v>
       </c>
       <c r="J9" t="n">
-        <v>78.54766843089809</v>
+        <v>78.54766843089762</v>
       </c>
       <c r="K9" t="n">
-        <v>134.2504762369609</v>
+        <v>134.2504762369601</v>
       </c>
       <c r="L9" t="n">
-        <v>180.5163328383831</v>
+        <v>180.516332838382</v>
       </c>
       <c r="M9" t="n">
-        <v>210.6540460170364</v>
+        <v>210.6540460170351</v>
       </c>
       <c r="N9" t="n">
-        <v>216.2294317944304</v>
+        <v>216.2294317944291</v>
       </c>
       <c r="O9" t="n">
-        <v>197.8076862434858</v>
+        <v>197.8076862434846</v>
       </c>
       <c r="P9" t="n">
-        <v>158.7581072440667</v>
+        <v>158.7581072440657</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.1255903631613</v>
+        <v>106.1255903631607</v>
       </c>
       <c r="R9" t="n">
-        <v>51.61881037592468</v>
+        <v>51.61881037592437</v>
       </c>
       <c r="S9" t="n">
-        <v>15.44261528270986</v>
+        <v>15.44261528270977</v>
       </c>
       <c r="T9" t="n">
-        <v>3.351065748479425</v>
+        <v>3.351065748479405</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05469639415363593</v>
+        <v>0.0546963941536356</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970054162091744</v>
+        <v>0.6970054162091702</v>
       </c>
       <c r="H10" t="n">
-        <v>6.197011791387029</v>
+        <v>6.197011791386991</v>
       </c>
       <c r="I10" t="n">
-        <v>20.96085378927227</v>
+        <v>20.96085378927214</v>
       </c>
       <c r="J10" t="n">
-        <v>49.27828292598863</v>
+        <v>49.27828292598834</v>
       </c>
       <c r="K10" t="n">
-        <v>80.9793565377568</v>
+        <v>80.9793565377563</v>
       </c>
       <c r="L10" t="n">
-        <v>103.6256961516804</v>
+        <v>103.6256961516797</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2587671972254</v>
+        <v>109.2587671972247</v>
       </c>
       <c r="N10" t="n">
-        <v>106.6608379186276</v>
+        <v>106.660837918627</v>
       </c>
       <c r="O10" t="n">
-        <v>98.51854737472954</v>
+        <v>98.51854737472894</v>
       </c>
       <c r="P10" t="n">
-        <v>84.29963688406229</v>
+        <v>84.2996368840618</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.36469898820642</v>
+        <v>58.36469898820607</v>
       </c>
       <c r="R10" t="n">
-        <v>31.33989807791433</v>
+        <v>31.33989807791414</v>
       </c>
       <c r="S10" t="n">
-        <v>12.14690348066352</v>
+        <v>12.14690348066345</v>
       </c>
       <c r="T10" t="n">
-        <v>2.978114051075563</v>
+        <v>2.978114051075545</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03801847724777319</v>
+        <v>0.03801847724777296</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551115</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,13 +34234,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>32.56860287904802</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="N2" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="O2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="P2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
-        <v>28.63848405005938</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>32.56860287904804</v>
+      </c>
+      <c r="Q3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="P3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
-        <v>36.92627338448403</v>
+        <v>31.71334579105918</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="P5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>38.48106384277808</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>30.55594983196189</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>119.9321275511157</v>
+        <v>119.9321275511149</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>119.1204890285654</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="M8" t="n">
-        <v>42.49693496369272</v>
+        <v>42.49693496369107</v>
       </c>
       <c r="N8" t="n">
-        <v>47.84499230445454</v>
+        <v>47.84499230445283</v>
       </c>
       <c r="O8" t="n">
-        <v>31.70870865283595</v>
+        <v>31.70870865283436</v>
       </c>
       <c r="P8" t="n">
-        <v>175.3318063516155</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.808053166238</v>
+        <v>101.5967358431918</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>92.99837265162154</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>41.96195305850887</v>
+        <v>41.96195305850779</v>
       </c>
       <c r="M9" t="n">
-        <v>68.52001209501807</v>
+        <v>126.2857399051626</v>
       </c>
       <c r="N9" t="n">
-        <v>84.88771971109708</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="O9" t="n">
-        <v>55.21144179904138</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="P9" t="n">
-        <v>175.3318063516155</v>
+        <v>175.3318063516145</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.3318063516155</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>58.70986471187395</v>
+        <v>58.70986471187345</v>
       </c>
       <c r="L10" t="n">
-        <v>131.2157214119965</v>
+        <v>131.2157214119959</v>
       </c>
       <c r="M10" t="n">
-        <v>148.842644159066</v>
+        <v>148.8426441590653</v>
       </c>
       <c r="N10" t="n">
-        <v>150.7930102978563</v>
+        <v>150.7930102978556</v>
       </c>
       <c r="O10" t="n">
-        <v>123.1036752887692</v>
+        <v>123.1036752887686</v>
       </c>
       <c r="P10" t="n">
-        <v>81.57819614895578</v>
+        <v>81.57819614895529</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075163</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306618</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37794,13 +37794,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075249</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.626132989912</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
